--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd6</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd6</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N2">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O2">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P2">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q2">
-        <v>1.082161248563778</v>
+        <v>0.8483932508266667</v>
       </c>
       <c r="R2">
-        <v>9.739451237073999</v>
+        <v>7.63553925744</v>
       </c>
       <c r="S2">
-        <v>0.01066625683072532</v>
+        <v>0.01100197727868223</v>
       </c>
       <c r="T2">
-        <v>0.01076235439342092</v>
+        <v>0.0111470161063249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.724307</v>
       </c>
       <c r="O3">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P3">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q3">
-        <v>0.03729522769266667</v>
+        <v>0.039442947856</v>
       </c>
       <c r="R3">
-        <v>0.335657049234</v>
+        <v>0.354986530704</v>
       </c>
       <c r="S3">
-        <v>0.0003675981538410422</v>
+        <v>0.0005114967801701896</v>
       </c>
       <c r="T3">
-        <v>0.0003709100267122981</v>
+        <v>0.0005182398311200066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N4">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O4">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P4">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q4">
-        <v>0.01545632501833333</v>
+        <v>0.03606383347200001</v>
       </c>
       <c r="R4">
-        <v>0.09273795011000001</v>
+        <v>0.216383000832</v>
       </c>
       <c r="S4">
-        <v>0.0001523443317929827</v>
+        <v>0.000467676370662439</v>
       </c>
       <c r="T4">
-        <v>0.0001024779179553713</v>
+        <v>0.000315894492069956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>16.977119</v>
       </c>
       <c r="I5">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J5">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N5">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O5">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P5">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q5">
-        <v>94.3788736068459</v>
+        <v>69.96227353929223</v>
       </c>
       <c r="R5">
-        <v>849.409862461613</v>
+        <v>629.6604618536301</v>
       </c>
       <c r="S5">
-        <v>0.9302396538604689</v>
+        <v>0.9072718849357098</v>
       </c>
       <c r="T5">
-        <v>0.9386206412000275</v>
+        <v>0.9192324305004782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>16.977119</v>
       </c>
       <c r="I6">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J6">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.724307</v>
       </c>
       <c r="O6">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P6">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q6">
         <v>3.252640570170334</v>
@@ -818,10 +818,10 @@
         <v>29.273765131533</v>
       </c>
       <c r="S6">
-        <v>0.03205945485990939</v>
+        <v>0.04218029506230157</v>
       </c>
       <c r="T6">
-        <v>0.03234829428336226</v>
+        <v>0.04273635697649148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +850,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N7">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O7">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P7">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q7">
-        <v>1.347997396199167</v>
+        <v>2.973983797944</v>
       </c>
       <c r="R7">
-        <v>8.087984377195001</v>
+        <v>17.843902787664</v>
       </c>
       <c r="S7">
-        <v>0.01328645472575516</v>
+        <v>0.03856666957247385</v>
       </c>
       <c r="T7">
-        <v>0.008937439294780568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.153465</v>
-      </c>
-      <c r="I8">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J8">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>16.67754233333333</v>
-      </c>
-      <c r="N8">
-        <v>50.03262699999999</v>
-      </c>
-      <c r="O8">
-        <v>0.9535192900707901</v>
-      </c>
-      <c r="P8">
-        <v>0.9578676752791928</v>
-      </c>
-      <c r="Q8">
-        <v>1.2797095170925</v>
-      </c>
-      <c r="R8">
-        <v>7.678257102554999</v>
-      </c>
-      <c r="S8">
-        <v>0.01261337937959587</v>
-      </c>
-      <c r="T8">
-        <v>0.00848467968574422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.153465</v>
-      </c>
-      <c r="I9">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J9">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.574769</v>
-      </c>
-      <c r="N9">
-        <v>1.724307</v>
-      </c>
-      <c r="O9">
-        <v>0.0328617561197435</v>
-      </c>
-      <c r="P9">
-        <v>0.03301161735036698</v>
-      </c>
-      <c r="Q9">
-        <v>0.04410346229250001</v>
-      </c>
-      <c r="R9">
-        <v>0.264620773755</v>
-      </c>
-      <c r="S9">
-        <v>0.0004347031059930716</v>
-      </c>
-      <c r="T9">
-        <v>0.0002924130402924188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.153465</v>
-      </c>
-      <c r="I10">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J10">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.2382025</v>
-      </c>
-      <c r="N10">
-        <v>0.476405</v>
-      </c>
-      <c r="O10">
-        <v>0.01361895380946642</v>
-      </c>
-      <c r="P10">
-        <v>0.009120707370440172</v>
-      </c>
-      <c r="Q10">
-        <v>0.01827787333125</v>
-      </c>
-      <c r="R10">
-        <v>0.07311149332500001</v>
-      </c>
-      <c r="S10">
-        <v>0.0001801547519182744</v>
-      </c>
-      <c r="T10">
-        <v>8.079015770423122E-05</v>
+        <v>0.02605006209351539</v>
       </c>
     </row>
   </sheetData>
